--- a/Config/Excel/Rock.xlsx
+++ b/Config/Excel/Rock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A0C81-5552-4D12-914A-24625F0AE1E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D08648-E0F6-40AD-91CF-D1F481553560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E544E17-E0BC-42C6-AC80-B25E3C719FBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreatePosOffset</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -173,15 +177,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:L7" totalsRowShown="0">
-  <autoFilter ref="A1:L7" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BFFBC2-85F1-48A9-A315-D9D00B7E276E}" name="テーブル1" displayName="テーブル1" ref="A1:M7" totalsRowShown="0">
+  <autoFilter ref="A1:M7" xr:uid="{E3CA5CB7-02F0-43E8-8483-67B8EA162CBC}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AF52EC0A-424A-4E3F-866B-24BA47882017}" name="ID"/>
     <tableColumn id="2" xr3:uid="{AA5BE291-BCD0-4E9A-BE67-17FB70DBFC44}" name="ResourceName"/>
     <tableColumn id="3" xr3:uid="{930E2C0A-00D8-4B64-B1D2-FD607E2D5F67}" name="PosX"/>
     <tableColumn id="4" xr3:uid="{58285632-1C15-4A2B-80D1-B5CF458019EC}" name="PosZ"/>
     <tableColumn id="11" xr3:uid="{898F6D9F-7CC5-4A66-9EDD-5B7AAC68ECE7}" name="Angle"/>
     <tableColumn id="10" xr3:uid="{815C0D7F-A601-4FB5-AC18-03492C4EB20D}" name="OffsetY"/>
+    <tableColumn id="13" xr3:uid="{BA62A4BD-AF1E-46EE-8586-8435DFFBCB8A}" name="CreatePosOffset"/>
     <tableColumn id="5" xr3:uid="{4F9EAD92-244E-48B1-8DA0-DEE3B35788A5}" name="Scale"/>
     <tableColumn id="6" xr3:uid="{14B3D347-9CA9-43D5-B3CD-AD07FF367536}" name="Break"/>
     <tableColumn id="7" xr3:uid="{12E6CEC8-667D-40C2-8234-FE31ED2097D2}" name="HP"/>
@@ -490,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C7251B-881D-446E-B69F-68E90C4032C4}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -501,7 +506,7 @@
     <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,25 +526,28 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -553,19 +561,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -576,19 +587,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -599,19 +613,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -622,16 +639,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -642,16 +662,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -662,12 +685,15 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
     </row>
